--- a/DataExcel/Login.xlsx
+++ b/DataExcel/Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nobu\main\Android-Automation\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8157BE3-4C86-4DB7-AF17-08151893468A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65219A7-D06A-4048-9B4B-72492A25CD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{203580D6-4BBC-5342-8FAE-BB19812591D1}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>5715527320</v>
+        <v>1221723299</v>
       </c>
       <c r="D4">
         <v>888888</v>
@@ -516,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>5715527320</v>
+        <v>1221723299</v>
       </c>
       <c r="D5">
         <v>999999</v>
@@ -533,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>5715527320</v>
+        <v>1221723299</v>
       </c>
       <c r="D6" s="2">
         <v>999999</v>

--- a/DataExcel/Login.xlsx
+++ b/DataExcel/Login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nobu\main\Android-Automation\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65219A7-D06A-4048-9B4B-72492A25CD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6CA279-3BFE-41DD-9D20-DA70FF8128A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{203580D6-4BBC-5342-8FAE-BB19812591D1}"/>
+    <workbookView xWindow="8700" yWindow="1440" windowWidth="11730" windowHeight="9705" xr2:uid="{203580D6-4BBC-5342-8FAE-BB19812591D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,14 +85,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,18 +107,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6808C4D9-0B77-6F42-9E12-4E77E07FAAC3}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -455,7 +444,7 @@
     <col min="8" max="8" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -483,7 +472,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -494,28 +483,28 @@
         <v>1646948713</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>1221723299</v>
       </c>
       <c r="D4">
         <v>888888</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>1221723299</v>
       </c>
       <c r="D5">
@@ -525,14 +514,14 @@
         <v>111222</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>1221723299</v>
       </c>
       <c r="D6" s="2">
@@ -541,32 +530,6 @@
       <c r="E6">
         <v>111111</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
